--- a/raw/PE1126_Cálculos Electricos_CR.xlsx
+++ b/raw/PE1126_Cálculos Electricos_CR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\projects\memcalculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alanrproject\projects\IngenieriaCiudad\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584F9A2-18AD-42BB-B023-244F91D21F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE04E6A-0475-4423-ABEA-D5E34EB398C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionSistema" sheetId="41" r:id="rId1"/>
@@ -46,8 +46,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4514,6 +4518,9 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4523,7 +4530,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4535,12 +4572,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4565,39 +4596,30 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="24" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4613,24 +4635,6 @@
     <xf numFmtId="2" fontId="2" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4694,6 +4698,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4703,15 +4737,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4721,96 +4746,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4845,12 +4780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4861,6 +4790,81 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4939,6 +4943,33 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4946,31 +4977,76 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4980,78 +5056,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9895,8 +9899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8143648-54E3-4E6D-A083-1CCBE11E9030}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9987,11 +9991,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="285" t="s">
         <v>477</v>
       </c>
       <c r="B1" s="293"/>
-      <c r="C1" s="292"/>
+      <c r="C1" s="286"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -10999,23 +11003,23 @@
     </row>
     <row r="2" spans="1:21" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:21" s="68" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="317" t="s">
+      <c r="B3" s="314" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="320" t="s">
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="327" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="315"/>
+      <c r="A4" s="325"/>
       <c r="B4" s="94" t="s">
         <v>192</v>
       </c>
@@ -11034,10 +11038,10 @@
       <c r="G4" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="328"/>
     </row>
     <row r="5" spans="1:21" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="315"/>
+      <c r="A5" s="325"/>
       <c r="B5" s="94" t="s">
         <v>195</v>
       </c>
@@ -11056,10 +11060,10 @@
       <c r="G5" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="321"/>
+      <c r="H5" s="328"/>
     </row>
     <row r="6" spans="1:21" s="68" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="316"/>
+      <c r="A6" s="326"/>
       <c r="B6" s="96" t="s">
         <v>196</v>
       </c>
@@ -11078,7 +11082,7 @@
       <c r="G6" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="322"/>
+      <c r="H6" s="329"/>
       <c r="N6" s="94" t="s">
         <v>192</v>
       </c>
@@ -11102,16 +11106,16 @@
       <c r="A7" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="317" t="s">
+      <c r="B7" s="314" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="317" t="s">
+      <c r="C7" s="315"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="314" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="318"/>
-      <c r="G7" s="319"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="316"/>
       <c r="H7" s="94" t="s">
         <v>92</v>
       </c>
@@ -11121,16 +11125,16 @@
       <c r="M7" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="N7" s="317" t="s">
+      <c r="N7" s="314" t="s">
         <v>202</v>
       </c>
-      <c r="O7" s="318"/>
-      <c r="P7" s="319"/>
-      <c r="Q7" s="317" t="s">
+      <c r="O7" s="315"/>
+      <c r="P7" s="316"/>
+      <c r="Q7" s="314" t="s">
         <v>203</v>
       </c>
-      <c r="R7" s="318"/>
-      <c r="S7" s="319"/>
+      <c r="R7" s="315"/>
+      <c r="S7" s="316"/>
       <c r="T7" s="94" t="s">
         <v>92</v>
       </c>
@@ -12775,33 +12779,33 @@
     </row>
     <row r="38" spans="1:21" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:21" s="68" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="323" t="s">
+      <c r="A39" s="317" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="325"/>
-      <c r="J39" s="323" t="s">
+      <c r="B39" s="318"/>
+      <c r="C39" s="318"/>
+      <c r="D39" s="318"/>
+      <c r="E39" s="318"/>
+      <c r="F39" s="318"/>
+      <c r="G39" s="318"/>
+      <c r="H39" s="319"/>
+      <c r="J39" s="317" t="s">
         <v>221</v>
       </c>
-      <c r="K39" s="324"/>
+      <c r="K39" s="318"/>
     </row>
     <row r="40" spans="1:21" s="68" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="326" t="s">
+      <c r="B40" s="320" t="s">
         <v>210</v>
       </c>
-      <c r="C40" s="326"/>
-      <c r="D40" s="326"/>
-      <c r="E40" s="326"/>
-      <c r="F40" s="326"/>
-      <c r="G40" s="326"/>
+      <c r="C40" s="320"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="320"/>
+      <c r="G40" s="320"/>
       <c r="H40" s="108" t="s">
         <v>209</v>
       </c>
@@ -13096,36 +13100,36 @@
     <row r="52" spans="1:8" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" s="68" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="327" t="s">
+      <c r="A54" s="321" t="s">
         <v>233</v>
       </c>
-      <c r="B54" s="328"/>
-      <c r="C54" s="328"/>
-      <c r="D54" s="328"/>
-      <c r="E54" s="328"/>
-      <c r="F54" s="328"/>
-      <c r="G54" s="328"/>
-      <c r="H54" s="329"/>
+      <c r="B54" s="322"/>
+      <c r="C54" s="322"/>
+      <c r="D54" s="322"/>
+      <c r="E54" s="322"/>
+      <c r="F54" s="322"/>
+      <c r="G54" s="322"/>
+      <c r="H54" s="323"/>
     </row>
     <row r="55" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:8" s="68" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="314" t="s">
+      <c r="A56" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="317" t="s">
+      <c r="B56" s="314" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="318"/>
-      <c r="D56" s="318"/>
-      <c r="E56" s="318"/>
-      <c r="F56" s="318"/>
-      <c r="G56" s="319"/>
-      <c r="H56" s="320" t="s">
+      <c r="C56" s="315"/>
+      <c r="D56" s="315"/>
+      <c r="E56" s="315"/>
+      <c r="F56" s="315"/>
+      <c r="G56" s="316"/>
+      <c r="H56" s="327" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="315"/>
+      <c r="A57" s="325"/>
       <c r="B57" s="94" t="s">
         <v>192</v>
       </c>
@@ -13144,10 +13148,10 @@
       <c r="G57" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="H57" s="321"/>
+      <c r="H57" s="328"/>
     </row>
     <row r="58" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="315"/>
+      <c r="A58" s="325"/>
       <c r="B58" s="94" t="s">
         <v>195</v>
       </c>
@@ -13166,10 +13170,10 @@
       <c r="G58" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="H58" s="321"/>
+      <c r="H58" s="328"/>
     </row>
     <row r="59" spans="1:8" s="68" customFormat="1" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="316"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="96" t="s">
         <v>196</v>
       </c>
@@ -13188,22 +13192,22 @@
       <c r="G59" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="H59" s="322"/>
+      <c r="H59" s="329"/>
     </row>
     <row r="60" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="317" t="s">
+      <c r="B60" s="314" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="318"/>
-      <c r="D60" s="319"/>
-      <c r="E60" s="317" t="s">
+      <c r="C60" s="315"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="314" t="s">
         <v>203</v>
       </c>
-      <c r="F60" s="318"/>
-      <c r="G60" s="319"/>
+      <c r="F60" s="315"/>
+      <c r="G60" s="316"/>
       <c r="H60" s="94" t="s">
         <v>92</v>
       </c>
@@ -13976,29 +13980,29 @@
     </row>
     <row r="91" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:8" s="68" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="323" t="s">
+      <c r="A92" s="317" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="324"/>
-      <c r="C92" s="324"/>
-      <c r="D92" s="324"/>
-      <c r="E92" s="324"/>
-      <c r="F92" s="324"/>
-      <c r="G92" s="324"/>
-      <c r="H92" s="325"/>
+      <c r="B92" s="318"/>
+      <c r="C92" s="318"/>
+      <c r="D92" s="318"/>
+      <c r="E92" s="318"/>
+      <c r="F92" s="318"/>
+      <c r="G92" s="318"/>
+      <c r="H92" s="319"/>
     </row>
     <row r="93" spans="1:8" s="68" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="326" t="s">
+      <c r="B93" s="320" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="326"/>
-      <c r="D93" s="326"/>
-      <c r="E93" s="326"/>
-      <c r="F93" s="326"/>
-      <c r="G93" s="326"/>
+      <c r="C93" s="320"/>
+      <c r="D93" s="320"/>
+      <c r="E93" s="320"/>
+      <c r="F93" s="320"/>
+      <c r="G93" s="320"/>
       <c r="H93" s="108" t="s">
         <v>209</v>
       </c>
@@ -14300,12 +14304,6 @@
     <sortCondition descending="1" ref="P8:P37"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="J39:K39"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="B56:G56"/>
@@ -14319,6 +14317,12 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="B40:G40"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14471,31 +14475,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="363" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="336"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="365"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="337"/>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="339"/>
+      <c r="A2" s="366"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="368"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="359" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="331"/>
+      <c r="B4" s="360"/>
       <c r="C4" s="130">
         <v>1</v>
       </c>
@@ -14507,10 +14511,10 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="332" t="s">
+      <c r="A5" s="361" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="333"/>
+      <c r="B5" s="362"/>
       <c r="C5" s="132">
         <v>0.53</v>
       </c>
@@ -14523,33 +14527,33 @@
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="344" t="s">
+      <c r="A7" s="348" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="345"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="346"/>
+      <c r="B7" s="349"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
+      <c r="E7" s="349"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="350"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="347"/>
-      <c r="B8" s="348"/>
-      <c r="C8" s="348"/>
-      <c r="D8" s="348"/>
-      <c r="E8" s="348"/>
-      <c r="F8" s="348"/>
-      <c r="G8" s="349"/>
+      <c r="A8" s="351"/>
+      <c r="B8" s="352"/>
+      <c r="C8" s="352"/>
+      <c r="D8" s="352"/>
+      <c r="E8" s="352"/>
+      <c r="F8" s="352"/>
+      <c r="G8" s="353"/>
     </row>
     <row r="9" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="350"/>
-      <c r="B9" s="351"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="352"/>
+      <c r="A9" s="354"/>
+      <c r="B9" s="355"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="356"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14559,34 +14563,34 @@
       <c r="B12" s="305" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="340" t="s">
+      <c r="C12" s="344" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="342" t="s">
+      <c r="D12" s="344"/>
+      <c r="E12" s="344"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="346" t="s">
         <v>288</v>
       </c>
-      <c r="H12" s="340"/>
-      <c r="I12" s="343"/>
+      <c r="H12" s="344"/>
+      <c r="I12" s="347"/>
       <c r="O12" s="305" t="s">
         <v>235</v>
       </c>
       <c r="P12" s="305" t="s">
         <v>289</v>
       </c>
-      <c r="Q12" s="340" t="s">
+      <c r="Q12" s="344" t="s">
         <v>287</v>
       </c>
-      <c r="R12" s="340"/>
-      <c r="S12" s="340"/>
-      <c r="T12" s="341"/>
-      <c r="U12" s="342" t="s">
+      <c r="R12" s="344"/>
+      <c r="S12" s="344"/>
+      <c r="T12" s="345"/>
+      <c r="U12" s="346" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="340"/>
-      <c r="W12" s="343"/>
+      <c r="V12" s="344"/>
+      <c r="W12" s="347"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="306"/>
@@ -14676,7 +14680,7 @@
       <c r="A15" s="139">
         <v>18</v>
       </c>
-      <c r="B15" s="365">
+      <c r="B15" s="357">
         <v>0.82</v>
       </c>
       <c r="C15" s="121">
@@ -14712,7 +14716,7 @@
       <c r="A16" s="119">
         <v>18</v>
       </c>
-      <c r="B16" s="366"/>
+      <c r="B16" s="358"/>
       <c r="C16" s="122">
         <v>7</v>
       </c>
@@ -14772,7 +14776,7 @@
       <c r="A17" s="119">
         <v>16</v>
       </c>
-      <c r="B17" s="367">
+      <c r="B17" s="342">
         <v>1.31</v>
       </c>
       <c r="C17" s="121">
@@ -14808,7 +14812,7 @@
       <c r="A18" s="119">
         <v>16</v>
       </c>
-      <c r="B18" s="368"/>
+      <c r="B18" s="343"/>
       <c r="C18" s="122">
         <v>7</v>
       </c>
@@ -14868,7 +14872,7 @@
       <c r="A19" s="119">
         <v>14</v>
       </c>
-      <c r="B19" s="367">
+      <c r="B19" s="342">
         <v>2.08</v>
       </c>
       <c r="C19" s="121">
@@ -14904,7 +14908,7 @@
       <c r="A20" s="119">
         <v>14</v>
       </c>
-      <c r="B20" s="368"/>
+      <c r="B20" s="343"/>
       <c r="C20" s="122">
         <v>7</v>
       </c>
@@ -14964,7 +14968,7 @@
       <c r="A21" s="119">
         <v>12</v>
       </c>
-      <c r="B21" s="367">
+      <c r="B21" s="342">
         <v>3.31</v>
       </c>
       <c r="C21" s="121">
@@ -15000,7 +15004,7 @@
       <c r="A22" s="119">
         <v>12</v>
       </c>
-      <c r="B22" s="368"/>
+      <c r="B22" s="343"/>
       <c r="C22" s="122">
         <v>7</v>
       </c>
@@ -15060,7 +15064,7 @@
       <c r="A23" s="119">
         <v>10</v>
       </c>
-      <c r="B23" s="367">
+      <c r="B23" s="342">
         <v>5.26</v>
       </c>
       <c r="C23" s="121">
@@ -15096,7 +15100,7 @@
       <c r="A24" s="119">
         <v>10</v>
       </c>
-      <c r="B24" s="368"/>
+      <c r="B24" s="343"/>
       <c r="C24" s="122">
         <v>7</v>
       </c>
@@ -15156,7 +15160,7 @@
       <c r="A25" s="119">
         <v>8</v>
       </c>
-      <c r="B25" s="367">
+      <c r="B25" s="342">
         <v>8.3699999999999992</v>
       </c>
       <c r="C25" s="121">
@@ -15192,7 +15196,7 @@
       <c r="A26" s="119">
         <v>8</v>
       </c>
-      <c r="B26" s="368"/>
+      <c r="B26" s="343"/>
       <c r="C26" s="122">
         <v>7</v>
       </c>
@@ -15805,93 +15809,93 @@
     </row>
     <row r="36" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="344" t="s">
+      <c r="A37" s="348" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="345"/>
-      <c r="C37" s="345"/>
-      <c r="D37" s="345"/>
-      <c r="E37" s="345"/>
-      <c r="F37" s="345"/>
-      <c r="G37" s="346"/>
+      <c r="B37" s="349"/>
+      <c r="C37" s="349"/>
+      <c r="D37" s="349"/>
+      <c r="E37" s="349"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="350"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="347"/>
-      <c r="B38" s="348"/>
-      <c r="C38" s="348"/>
-      <c r="D38" s="348"/>
-      <c r="E38" s="348"/>
-      <c r="F38" s="348"/>
-      <c r="G38" s="349"/>
+      <c r="A38" s="351"/>
+      <c r="B38" s="352"/>
+      <c r="C38" s="352"/>
+      <c r="D38" s="352"/>
+      <c r="E38" s="352"/>
+      <c r="F38" s="352"/>
+      <c r="G38" s="353"/>
     </row>
     <row r="39" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="350"/>
-      <c r="B39" s="351"/>
-      <c r="C39" s="351"/>
-      <c r="D39" s="351"/>
-      <c r="E39" s="351"/>
-      <c r="F39" s="351"/>
-      <c r="G39" s="352"/>
+      <c r="A39" s="354"/>
+      <c r="B39" s="355"/>
+      <c r="C39" s="355"/>
+      <c r="D39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="356"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="353"/>
-      <c r="B40" s="354"/>
-      <c r="C40" s="354"/>
-      <c r="D40" s="357" t="s">
+      <c r="A40" s="330"/>
+      <c r="B40" s="331"/>
+      <c r="C40" s="331"/>
+      <c r="D40" s="334" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="358"/>
-      <c r="F40" s="357" t="s">
+      <c r="E40" s="335"/>
+      <c r="F40" s="334" t="s">
         <v>216</v>
       </c>
-      <c r="G40" s="358"/>
-      <c r="O40" s="353"/>
-      <c r="P40" s="354"/>
-      <c r="Q40" s="354"/>
-      <c r="R40" s="357" t="s">
+      <c r="G40" s="335"/>
+      <c r="O40" s="330"/>
+      <c r="P40" s="331"/>
+      <c r="Q40" s="331"/>
+      <c r="R40" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="S40" s="358"/>
-      <c r="T40" s="357" t="s">
+      <c r="S40" s="335"/>
+      <c r="T40" s="334" t="s">
         <v>303</v>
       </c>
-      <c r="U40" s="358"/>
+      <c r="U40" s="335"/>
     </row>
     <row r="41" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="355"/>
-      <c r="B41" s="356"/>
-      <c r="C41" s="356"/>
-      <c r="D41" s="359"/>
-      <c r="E41" s="360"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="360"/>
-      <c r="O41" s="355"/>
-      <c r="P41" s="356"/>
-      <c r="Q41" s="356"/>
-      <c r="R41" s="359"/>
-      <c r="S41" s="360"/>
-      <c r="T41" s="359"/>
-      <c r="U41" s="360"/>
+      <c r="A41" s="332"/>
+      <c r="B41" s="333"/>
+      <c r="C41" s="333"/>
+      <c r="D41" s="336"/>
+      <c r="E41" s="337"/>
+      <c r="F41" s="336"/>
+      <c r="G41" s="337"/>
+      <c r="O41" s="332"/>
+      <c r="P41" s="333"/>
+      <c r="Q41" s="333"/>
+      <c r="R41" s="336"/>
+      <c r="S41" s="337"/>
+      <c r="T41" s="336"/>
+      <c r="U41" s="337"/>
     </row>
     <row r="42" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="134"/>
-      <c r="B42" s="363" t="s">
+      <c r="B42" s="340" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="361"/>
-      <c r="E42" s="362"/>
-      <c r="F42" s="361"/>
-      <c r="G42" s="362"/>
+      <c r="C42" s="341"/>
+      <c r="D42" s="338"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="338"/>
+      <c r="G42" s="339"/>
       <c r="O42" s="134"/>
-      <c r="P42" s="363" t="s">
+      <c r="P42" s="340" t="s">
         <v>217</v>
       </c>
-      <c r="Q42" s="364"/>
-      <c r="R42" s="361"/>
-      <c r="S42" s="362"/>
-      <c r="T42" s="361"/>
-      <c r="U42" s="362"/>
+      <c r="Q42" s="341"/>
+      <c r="R42" s="338"/>
+      <c r="S42" s="339"/>
+      <c r="T42" s="338"/>
+      <c r="U42" s="339"/>
     </row>
     <row r="43" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="120" t="s">
@@ -16918,17 +16922,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="R40:S42"/>
-    <mergeCell ref="T40:U42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A7:G9"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="A37:G39"/>
     <mergeCell ref="A40:C41"/>
@@ -16945,12 +16944,17 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A7:G9"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="R40:S42"/>
+    <mergeCell ref="T40:U42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20996,64 +21000,64 @@
         <f>(2*C3*B3/1000*F3)/D3</f>
         <v>2.7210024742268038E-3</v>
       </c>
-      <c r="H3" s="395">
+      <c r="H3" s="404">
         <v>34</v>
       </c>
-      <c r="I3" s="397">
+      <c r="I3" s="395">
         <v>18.18</v>
       </c>
-      <c r="J3" s="397">
+      <c r="J3" s="395">
         <v>698.4</v>
       </c>
-      <c r="K3" s="397" t="s">
+      <c r="K3" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="397">
+      <c r="L3" s="395">
         <v>2.5790000000000002</v>
       </c>
-      <c r="M3" s="399">
+      <c r="M3" s="402">
         <f>(2*I3*H3/1000*L3)/J3</f>
         <v>4.5650958762886605E-3</v>
       </c>
-      <c r="N3" s="395">
+      <c r="N3" s="404">
         <v>2</v>
       </c>
-      <c r="O3" s="397">
+      <c r="O3" s="395">
         <v>41.6</v>
       </c>
-      <c r="P3" s="397">
+      <c r="P3" s="395">
         <v>208</v>
       </c>
-      <c r="Q3" s="397" t="s">
+      <c r="Q3" s="395" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="397">
+      <c r="R3" s="395">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S3" s="399">
+      <c r="S3" s="402">
         <f>(1.73*N3/1000*O3*R3)/P3</f>
         <v>4.6710000000000008E-4</v>
       </c>
-      <c r="T3" s="395">
+      <c r="T3" s="404">
         <v>72</v>
       </c>
-      <c r="U3" s="397">
+      <c r="U3" s="395">
         <v>166.4</v>
       </c>
-      <c r="V3" s="397">
+      <c r="V3" s="395">
         <v>208</v>
       </c>
-      <c r="W3" s="397" t="s">
+      <c r="W3" s="395" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="397">
+      <c r="X3" s="395">
         <v>0.27700000000000002</v>
       </c>
-      <c r="Y3" s="401">
+      <c r="Y3" s="397">
         <f>(1.73*T3/1000*U3*X3)/V3/2</f>
         <v>1.3801248000000004E-2</v>
       </c>
-      <c r="Z3" s="403">
+      <c r="Z3" s="399">
         <f>Y3+S15+M15+G15</f>
         <v>2.8548291814432993E-2</v>
       </c>
@@ -21081,25 +21085,25 @@
         <f t="shared" ref="G4:G18" si="0">(2*C4*B4/1000*F4)/D4</f>
         <v>2.3646807216494846E-3</v>
       </c>
-      <c r="H4" s="395"/>
-      <c r="I4" s="397"/>
-      <c r="J4" s="397"/>
-      <c r="K4" s="397"/>
-      <c r="L4" s="397"/>
-      <c r="M4" s="399"/>
-      <c r="N4" s="395"/>
-      <c r="O4" s="397"/>
-      <c r="P4" s="397"/>
-      <c r="Q4" s="397"/>
-      <c r="R4" s="397"/>
-      <c r="S4" s="399"/>
-      <c r="T4" s="395"/>
-      <c r="U4" s="397"/>
-      <c r="V4" s="397"/>
-      <c r="W4" s="397"/>
-      <c r="X4" s="397"/>
-      <c r="Y4" s="401"/>
-      <c r="Z4" s="404"/>
+      <c r="H4" s="404"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="395"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="402"/>
+      <c r="N4" s="404"/>
+      <c r="O4" s="395"/>
+      <c r="P4" s="395"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="395"/>
+      <c r="S4" s="402"/>
+      <c r="T4" s="404"/>
+      <c r="U4" s="395"/>
+      <c r="V4" s="395"/>
+      <c r="W4" s="395"/>
+      <c r="X4" s="395"/>
+      <c r="Y4" s="397"/>
+      <c r="Z4" s="400"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -21124,25 +21128,25 @@
         <f t="shared" si="0"/>
         <v>1.8463945360824743E-3</v>
       </c>
-      <c r="H5" s="395"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="395"/>
-      <c r="O5" s="397"/>
-      <c r="P5" s="397"/>
-      <c r="Q5" s="397"/>
-      <c r="R5" s="397"/>
-      <c r="S5" s="399"/>
-      <c r="T5" s="395"/>
-      <c r="U5" s="397"/>
-      <c r="V5" s="397"/>
-      <c r="W5" s="397"/>
-      <c r="X5" s="397"/>
-      <c r="Y5" s="401"/>
-      <c r="Z5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="395"/>
+      <c r="P5" s="395"/>
+      <c r="Q5" s="395"/>
+      <c r="R5" s="395"/>
+      <c r="S5" s="402"/>
+      <c r="T5" s="404"/>
+      <c r="U5" s="395"/>
+      <c r="V5" s="395"/>
+      <c r="W5" s="395"/>
+      <c r="X5" s="395"/>
+      <c r="Y5" s="397"/>
+      <c r="Z5" s="400"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -21167,25 +21171,25 @@
         <f t="shared" si="0"/>
         <v>1.4900727835051545E-3</v>
       </c>
-      <c r="H6" s="395"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="397"/>
-      <c r="K6" s="397"/>
-      <c r="L6" s="397"/>
-      <c r="M6" s="399"/>
-      <c r="N6" s="395"/>
-      <c r="O6" s="397"/>
-      <c r="P6" s="397"/>
-      <c r="Q6" s="397"/>
-      <c r="R6" s="397"/>
-      <c r="S6" s="399"/>
-      <c r="T6" s="395"/>
-      <c r="U6" s="397"/>
-      <c r="V6" s="397"/>
-      <c r="W6" s="397"/>
-      <c r="X6" s="397"/>
-      <c r="Y6" s="401"/>
-      <c r="Z6" s="404"/>
+      <c r="H6" s="404"/>
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="402"/>
+      <c r="N6" s="404"/>
+      <c r="O6" s="395"/>
+      <c r="P6" s="395"/>
+      <c r="Q6" s="395"/>
+      <c r="R6" s="395"/>
+      <c r="S6" s="402"/>
+      <c r="T6" s="404"/>
+      <c r="U6" s="395"/>
+      <c r="V6" s="395"/>
+      <c r="W6" s="395"/>
+      <c r="X6" s="395"/>
+      <c r="Y6" s="397"/>
+      <c r="Z6" s="400"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
@@ -21210,51 +21214,51 @@
         <f t="shared" si="0"/>
         <v>2.6130261855670102E-3</v>
       </c>
-      <c r="H7" s="395">
+      <c r="H7" s="404">
         <v>26</v>
       </c>
-      <c r="I7" s="397">
+      <c r="I7" s="395">
         <v>18.18</v>
       </c>
-      <c r="J7" s="397">
+      <c r="J7" s="395">
         <v>698.4</v>
       </c>
-      <c r="K7" s="397" t="s">
+      <c r="K7" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="397">
+      <c r="L7" s="395">
         <v>2.5790000000000002</v>
       </c>
-      <c r="M7" s="399">
+      <c r="M7" s="402">
         <f t="shared" ref="M7" si="1">(2*I7*H7/1000*L7)/J7</f>
         <v>3.4909556701030933E-3</v>
       </c>
-      <c r="N7" s="395">
+      <c r="N7" s="404">
         <v>3</v>
       </c>
-      <c r="O7" s="397">
+      <c r="O7" s="395">
         <v>41.6</v>
       </c>
-      <c r="P7" s="397">
+      <c r="P7" s="395">
         <v>208</v>
       </c>
-      <c r="Q7" s="397" t="s">
+      <c r="Q7" s="395" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="397">
+      <c r="R7" s="395">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S7" s="399">
+      <c r="S7" s="402">
         <f t="shared" ref="S7" si="2">(1.73*N7/1000*O7*R7)/P7</f>
         <v>7.0065000000000004E-4</v>
       </c>
-      <c r="T7" s="395"/>
-      <c r="U7" s="397"/>
-      <c r="V7" s="397"/>
-      <c r="W7" s="397"/>
-      <c r="X7" s="397"/>
-      <c r="Y7" s="401"/>
-      <c r="Z7" s="404"/>
+      <c r="T7" s="404"/>
+      <c r="U7" s="395"/>
+      <c r="V7" s="395"/>
+      <c r="W7" s="395"/>
+      <c r="X7" s="395"/>
+      <c r="Y7" s="397"/>
+      <c r="Z7" s="400"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -21279,25 +21283,25 @@
         <f t="shared" si="0"/>
         <v>2.1703234020618556E-3</v>
       </c>
-      <c r="H8" s="395"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="397"/>
-      <c r="K8" s="397"/>
-      <c r="L8" s="397"/>
-      <c r="M8" s="399"/>
-      <c r="N8" s="395"/>
-      <c r="O8" s="397"/>
-      <c r="P8" s="397"/>
-      <c r="Q8" s="397"/>
-      <c r="R8" s="397"/>
-      <c r="S8" s="399"/>
-      <c r="T8" s="395"/>
-      <c r="U8" s="397"/>
-      <c r="V8" s="397"/>
-      <c r="W8" s="397"/>
-      <c r="X8" s="397"/>
-      <c r="Y8" s="401"/>
-      <c r="Z8" s="404"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="402"/>
+      <c r="N8" s="404"/>
+      <c r="O8" s="395"/>
+      <c r="P8" s="395"/>
+      <c r="Q8" s="395"/>
+      <c r="R8" s="395"/>
+      <c r="S8" s="402"/>
+      <c r="T8" s="404"/>
+      <c r="U8" s="395"/>
+      <c r="V8" s="395"/>
+      <c r="W8" s="395"/>
+      <c r="X8" s="395"/>
+      <c r="Y8" s="397"/>
+      <c r="Z8" s="400"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -21322,25 +21326,25 @@
         <f t="shared" si="0"/>
         <v>1.7168229896907215E-3</v>
       </c>
-      <c r="H9" s="395"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="397"/>
-      <c r="K9" s="397"/>
-      <c r="L9" s="397"/>
-      <c r="M9" s="399"/>
-      <c r="N9" s="395"/>
-      <c r="O9" s="397"/>
-      <c r="P9" s="397"/>
-      <c r="Q9" s="397"/>
-      <c r="R9" s="397"/>
-      <c r="S9" s="399"/>
-      <c r="T9" s="395"/>
-      <c r="U9" s="397"/>
-      <c r="V9" s="397"/>
-      <c r="W9" s="397"/>
-      <c r="X9" s="397"/>
-      <c r="Y9" s="401"/>
-      <c r="Z9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="395"/>
+      <c r="J9" s="395"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="395"/>
+      <c r="M9" s="402"/>
+      <c r="N9" s="404"/>
+      <c r="O9" s="395"/>
+      <c r="P9" s="395"/>
+      <c r="Q9" s="395"/>
+      <c r="R9" s="395"/>
+      <c r="S9" s="402"/>
+      <c r="T9" s="404"/>
+      <c r="U9" s="395"/>
+      <c r="V9" s="395"/>
+      <c r="W9" s="395"/>
+      <c r="X9" s="395"/>
+      <c r="Y9" s="397"/>
+      <c r="Z9" s="400"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
@@ -21365,25 +21369,25 @@
         <f t="shared" si="0"/>
         <v>1.3605012371134019E-3</v>
       </c>
-      <c r="H10" s="395"/>
-      <c r="I10" s="397"/>
-      <c r="J10" s="397"/>
-      <c r="K10" s="397"/>
-      <c r="L10" s="397"/>
-      <c r="M10" s="399"/>
-      <c r="N10" s="395"/>
-      <c r="O10" s="397"/>
-      <c r="P10" s="397"/>
-      <c r="Q10" s="397"/>
-      <c r="R10" s="397"/>
-      <c r="S10" s="399"/>
-      <c r="T10" s="395"/>
-      <c r="U10" s="397"/>
-      <c r="V10" s="397"/>
-      <c r="W10" s="397"/>
-      <c r="X10" s="397"/>
-      <c r="Y10" s="401"/>
-      <c r="Z10" s="404"/>
+      <c r="H10" s="404"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="395"/>
+      <c r="K10" s="395"/>
+      <c r="L10" s="395"/>
+      <c r="M10" s="402"/>
+      <c r="N10" s="404"/>
+      <c r="O10" s="395"/>
+      <c r="P10" s="395"/>
+      <c r="Q10" s="395"/>
+      <c r="R10" s="395"/>
+      <c r="S10" s="402"/>
+      <c r="T10" s="404"/>
+      <c r="U10" s="395"/>
+      <c r="V10" s="395"/>
+      <c r="W10" s="395"/>
+      <c r="X10" s="395"/>
+      <c r="Y10" s="397"/>
+      <c r="Z10" s="400"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
@@ -21408,51 +21412,51 @@
         <f t="shared" si="0"/>
         <v>2.7210024742268038E-3</v>
       </c>
-      <c r="H11" s="395">
+      <c r="H11" s="404">
         <v>16</v>
       </c>
-      <c r="I11" s="397">
+      <c r="I11" s="395">
         <v>18.18</v>
       </c>
-      <c r="J11" s="397">
+      <c r="J11" s="395">
         <v>698.4</v>
       </c>
-      <c r="K11" s="397" t="s">
+      <c r="K11" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="397">
+      <c r="L11" s="395">
         <v>2.5790000000000002</v>
       </c>
-      <c r="M11" s="399">
+      <c r="M11" s="402">
         <f t="shared" ref="M11" si="3">(2*I11*H11/1000*L11)/J11</f>
         <v>2.148280412371134E-3</v>
       </c>
-      <c r="N11" s="395">
+      <c r="N11" s="404">
         <v>4</v>
       </c>
-      <c r="O11" s="397">
+      <c r="O11" s="395">
         <v>41.6</v>
       </c>
-      <c r="P11" s="397">
+      <c r="P11" s="395">
         <v>208</v>
       </c>
-      <c r="Q11" s="397" t="s">
+      <c r="Q11" s="395" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="397">
+      <c r="R11" s="395">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S11" s="399">
+      <c r="S11" s="402">
         <f t="shared" ref="S11" si="4">(1.73*N11/1000*O11*R11)/P11</f>
         <v>9.3420000000000016E-4</v>
       </c>
-      <c r="T11" s="395"/>
-      <c r="U11" s="397"/>
-      <c r="V11" s="397"/>
-      <c r="W11" s="397"/>
-      <c r="X11" s="397"/>
-      <c r="Y11" s="401"/>
-      <c r="Z11" s="404"/>
+      <c r="T11" s="404"/>
+      <c r="U11" s="395"/>
+      <c r="V11" s="395"/>
+      <c r="W11" s="395"/>
+      <c r="X11" s="395"/>
+      <c r="Y11" s="397"/>
+      <c r="Z11" s="400"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
@@ -21477,25 +21481,25 @@
         <f t="shared" si="0"/>
         <v>2.3646807216494846E-3</v>
       </c>
-      <c r="H12" s="395"/>
-      <c r="I12" s="397"/>
-      <c r="J12" s="397"/>
-      <c r="K12" s="397"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="399"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="397"/>
-      <c r="P12" s="397"/>
-      <c r="Q12" s="397"/>
-      <c r="R12" s="397"/>
-      <c r="S12" s="399"/>
-      <c r="T12" s="395"/>
-      <c r="U12" s="397"/>
-      <c r="V12" s="397"/>
-      <c r="W12" s="397"/>
-      <c r="X12" s="397"/>
-      <c r="Y12" s="401"/>
-      <c r="Z12" s="404"/>
+      <c r="H12" s="404"/>
+      <c r="I12" s="395"/>
+      <c r="J12" s="395"/>
+      <c r="K12" s="395"/>
+      <c r="L12" s="395"/>
+      <c r="M12" s="402"/>
+      <c r="N12" s="404"/>
+      <c r="O12" s="395"/>
+      <c r="P12" s="395"/>
+      <c r="Q12" s="395"/>
+      <c r="R12" s="395"/>
+      <c r="S12" s="402"/>
+      <c r="T12" s="404"/>
+      <c r="U12" s="395"/>
+      <c r="V12" s="395"/>
+      <c r="W12" s="395"/>
+      <c r="X12" s="395"/>
+      <c r="Y12" s="397"/>
+      <c r="Z12" s="400"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
@@ -21520,25 +21524,25 @@
         <f t="shared" si="0"/>
         <v>1.8463945360824743E-3</v>
       </c>
-      <c r="H13" s="395"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="397"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="399"/>
-      <c r="N13" s="395"/>
-      <c r="O13" s="397"/>
-      <c r="P13" s="397"/>
-      <c r="Q13" s="397"/>
-      <c r="R13" s="397"/>
-      <c r="S13" s="399"/>
-      <c r="T13" s="395"/>
-      <c r="U13" s="397"/>
-      <c r="V13" s="397"/>
-      <c r="W13" s="397"/>
-      <c r="X13" s="397"/>
-      <c r="Y13" s="401"/>
-      <c r="Z13" s="404"/>
+      <c r="H13" s="404"/>
+      <c r="I13" s="395"/>
+      <c r="J13" s="395"/>
+      <c r="K13" s="395"/>
+      <c r="L13" s="395"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="404"/>
+      <c r="O13" s="395"/>
+      <c r="P13" s="395"/>
+      <c r="Q13" s="395"/>
+      <c r="R13" s="395"/>
+      <c r="S13" s="402"/>
+      <c r="T13" s="404"/>
+      <c r="U13" s="395"/>
+      <c r="V13" s="395"/>
+      <c r="W13" s="395"/>
+      <c r="X13" s="395"/>
+      <c r="Y13" s="397"/>
+      <c r="Z13" s="400"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -21563,25 +21567,25 @@
         <f t="shared" si="0"/>
         <v>1.4900727835051545E-3</v>
       </c>
-      <c r="H14" s="395"/>
-      <c r="I14" s="397"/>
-      <c r="J14" s="397"/>
-      <c r="K14" s="397"/>
-      <c r="L14" s="397"/>
-      <c r="M14" s="399"/>
-      <c r="N14" s="395"/>
-      <c r="O14" s="397"/>
-      <c r="P14" s="397"/>
-      <c r="Q14" s="397"/>
-      <c r="R14" s="397"/>
-      <c r="S14" s="399"/>
-      <c r="T14" s="395"/>
-      <c r="U14" s="397"/>
-      <c r="V14" s="397"/>
-      <c r="W14" s="397"/>
-      <c r="X14" s="397"/>
-      <c r="Y14" s="401"/>
-      <c r="Z14" s="404"/>
+      <c r="H14" s="404"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="395"/>
+      <c r="K14" s="395"/>
+      <c r="L14" s="395"/>
+      <c r="M14" s="402"/>
+      <c r="N14" s="404"/>
+      <c r="O14" s="395"/>
+      <c r="P14" s="395"/>
+      <c r="Q14" s="395"/>
+      <c r="R14" s="395"/>
+      <c r="S14" s="402"/>
+      <c r="T14" s="404"/>
+      <c r="U14" s="395"/>
+      <c r="V14" s="395"/>
+      <c r="W14" s="395"/>
+      <c r="X14" s="395"/>
+      <c r="Y14" s="397"/>
+      <c r="Z14" s="400"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
@@ -21606,51 +21610,51 @@
         <f t="shared" si="0"/>
         <v>3.5092293814432988E-3</v>
       </c>
-      <c r="H15" s="395">
+      <c r="H15" s="404">
         <v>75</v>
       </c>
-      <c r="I15" s="397">
+      <c r="I15" s="395">
         <v>18.18</v>
       </c>
-      <c r="J15" s="397">
+      <c r="J15" s="395">
         <v>698.4</v>
       </c>
-      <c r="K15" s="397" t="s">
+      <c r="K15" s="395" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="397">
+      <c r="L15" s="395">
         <v>2.5790000000000002</v>
       </c>
-      <c r="M15" s="399">
+      <c r="M15" s="402">
         <f t="shared" ref="M15" si="5">(2*I15*H15/1000*L15)/J15</f>
         <v>1.0070064432989691E-2</v>
       </c>
-      <c r="N15" s="395">
+      <c r="N15" s="404">
         <v>5</v>
       </c>
-      <c r="O15" s="397">
+      <c r="O15" s="395">
         <v>41.6</v>
       </c>
-      <c r="P15" s="397">
+      <c r="P15" s="395">
         <v>208</v>
       </c>
-      <c r="Q15" s="397" t="s">
+      <c r="Q15" s="395" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="397">
+      <c r="R15" s="395">
         <v>0.67500000000000004</v>
       </c>
-      <c r="S15" s="399">
+      <c r="S15" s="402">
         <f t="shared" ref="S15" si="6">(1.73*N15/1000*O15*R15)/P15</f>
         <v>1.1677500000000002E-3</v>
       </c>
-      <c r="T15" s="395"/>
-      <c r="U15" s="397"/>
-      <c r="V15" s="397"/>
-      <c r="W15" s="397"/>
-      <c r="X15" s="397"/>
-      <c r="Y15" s="401"/>
-      <c r="Z15" s="404"/>
+      <c r="T15" s="404"/>
+      <c r="U15" s="395"/>
+      <c r="V15" s="395"/>
+      <c r="W15" s="395"/>
+      <c r="X15" s="395"/>
+      <c r="Y15" s="397"/>
+      <c r="Z15" s="400"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
@@ -21675,25 +21679,25 @@
         <f t="shared" si="0"/>
         <v>2.3322878350515467E-3</v>
       </c>
-      <c r="H16" s="395"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="399"/>
-      <c r="N16" s="395"/>
-      <c r="O16" s="397"/>
-      <c r="P16" s="397"/>
-      <c r="Q16" s="397"/>
-      <c r="R16" s="397"/>
-      <c r="S16" s="399"/>
-      <c r="T16" s="395"/>
-      <c r="U16" s="397"/>
-      <c r="V16" s="397"/>
-      <c r="W16" s="397"/>
-      <c r="X16" s="397"/>
-      <c r="Y16" s="401"/>
-      <c r="Z16" s="404"/>
+      <c r="H16" s="404"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="395"/>
+      <c r="K16" s="395"/>
+      <c r="L16" s="395"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="404"/>
+      <c r="O16" s="395"/>
+      <c r="P16" s="395"/>
+      <c r="Q16" s="395"/>
+      <c r="R16" s="395"/>
+      <c r="S16" s="402"/>
+      <c r="T16" s="404"/>
+      <c r="U16" s="395"/>
+      <c r="V16" s="395"/>
+      <c r="W16" s="395"/>
+      <c r="X16" s="395"/>
+      <c r="Y16" s="397"/>
+      <c r="Z16" s="400"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
@@ -21718,25 +21722,25 @@
         <f t="shared" si="0"/>
         <v>2.8397763917525774E-3</v>
       </c>
-      <c r="H17" s="395"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="397"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="399"/>
-      <c r="N17" s="395"/>
-      <c r="O17" s="397"/>
-      <c r="P17" s="397"/>
-      <c r="Q17" s="397"/>
-      <c r="R17" s="397"/>
-      <c r="S17" s="399"/>
-      <c r="T17" s="395"/>
-      <c r="U17" s="397"/>
-      <c r="V17" s="397"/>
-      <c r="W17" s="397"/>
-      <c r="X17" s="397"/>
-      <c r="Y17" s="401"/>
-      <c r="Z17" s="404"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="395"/>
+      <c r="K17" s="395"/>
+      <c r="L17" s="395"/>
+      <c r="M17" s="402"/>
+      <c r="N17" s="404"/>
+      <c r="O17" s="395"/>
+      <c r="P17" s="395"/>
+      <c r="Q17" s="395"/>
+      <c r="R17" s="395"/>
+      <c r="S17" s="402"/>
+      <c r="T17" s="404"/>
+      <c r="U17" s="395"/>
+      <c r="V17" s="395"/>
+      <c r="W17" s="395"/>
+      <c r="X17" s="395"/>
+      <c r="Y17" s="397"/>
+      <c r="Z17" s="400"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
@@ -21761,39 +21765,62 @@
         <f t="shared" si="0"/>
         <v>1.8787874226804122E-3</v>
       </c>
-      <c r="H18" s="396"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="398"/>
-      <c r="K18" s="398"/>
-      <c r="L18" s="398"/>
-      <c r="M18" s="400"/>
-      <c r="N18" s="396"/>
-      <c r="O18" s="398"/>
-      <c r="P18" s="398"/>
-      <c r="Q18" s="398"/>
-      <c r="R18" s="398"/>
-      <c r="S18" s="400"/>
-      <c r="T18" s="396"/>
-      <c r="U18" s="398"/>
-      <c r="V18" s="398"/>
-      <c r="W18" s="398"/>
-      <c r="X18" s="398"/>
-      <c r="Y18" s="402"/>
-      <c r="Z18" s="405"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="396"/>
+      <c r="J18" s="396"/>
+      <c r="K18" s="396"/>
+      <c r="L18" s="396"/>
+      <c r="M18" s="403"/>
+      <c r="N18" s="405"/>
+      <c r="O18" s="396"/>
+      <c r="P18" s="396"/>
+      <c r="Q18" s="396"/>
+      <c r="R18" s="396"/>
+      <c r="S18" s="403"/>
+      <c r="T18" s="405"/>
+      <c r="U18" s="396"/>
+      <c r="V18" s="396"/>
+      <c r="W18" s="396"/>
+      <c r="X18" s="396"/>
+      <c r="Y18" s="398"/>
+      <c r="Z18" s="401"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="X3:X18"/>
-    <mergeCell ref="Y3:Y18"/>
-    <mergeCell ref="V3:V18"/>
-    <mergeCell ref="U3:U18"/>
-    <mergeCell ref="Z3:Z18"/>
-    <mergeCell ref="W3:W18"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="S11:S14"/>
-    <mergeCell ref="S15:S18"/>
-    <mergeCell ref="T3:T18"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="O7:O10"/>
     <mergeCell ref="N11:N14"/>
     <mergeCell ref="Q11:Q14"/>
     <mergeCell ref="R11:R14"/>
@@ -21804,40 +21831,17 @@
     <mergeCell ref="P15:P18"/>
     <mergeCell ref="O11:O14"/>
     <mergeCell ref="O15:O18"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="S15:S18"/>
+    <mergeCell ref="T3:T18"/>
+    <mergeCell ref="X3:X18"/>
+    <mergeCell ref="Y3:Y18"/>
+    <mergeCell ref="V3:V18"/>
+    <mergeCell ref="U3:U18"/>
+    <mergeCell ref="Z3:Z18"/>
+    <mergeCell ref="W3:W18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22095,30 +22099,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="420" t="s">
+      <c r="D1" s="407" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="422"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="409"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="423"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="425"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="412"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="426" t="s">
+      <c r="D3" s="413" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="428"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="415"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
@@ -22145,23 +22149,23 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="429" t="s">
+      <c r="B8" s="416" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="431"/>
+      <c r="C8" s="417"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="418"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="432" t="s">
+      <c r="I8" s="419" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="432"/>
-      <c r="K8" s="432"/>
+      <c r="J8" s="419"/>
+      <c r="K8" s="419"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="409" t="s">
+      <c r="B9" s="420" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -22191,18 +22195,18 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="409"/>
+      <c r="B10" s="420"/>
       <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="15">
         <v>41.6</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="421" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="413"/>
-      <c r="G10" s="416">
+      <c r="F10" s="424"/>
+      <c r="G10" s="427">
         <f>(SQRT(3)*D12*D9*D10*D13)/((VLOOKUP(D11:D11,'Area cable'!B2:C28,2,FALSE))*F9)/2</f>
         <v>6.6466961012801159E-4</v>
       </c>
@@ -22218,16 +22222,16 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="409"/>
+      <c r="B11" s="420"/>
       <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="411"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="417"/>
+      <c r="E11" s="422"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="428"/>
       <c r="H11" s="31"/>
       <c r="I11" s="28" t="s">
         <v>80</v>
@@ -22238,14 +22242,14 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="409"/>
+      <c r="B12" s="420"/>
       <c r="C12" s="25"/>
       <c r="D12" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E12" s="411"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="417"/>
+      <c r="E12" s="422"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="428"/>
       <c r="H12" s="31"/>
       <c r="I12" s="28" t="s">
         <v>99</v>
@@ -22256,14 +22260,14 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="409"/>
+      <c r="B13" s="420"/>
       <c r="C13" s="25"/>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="412"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="418"/>
+      <c r="E13" s="423"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="429"/>
       <c r="H13" s="31"/>
       <c r="I13" s="28" t="s">
         <v>81</v>
@@ -22287,11 +22291,11 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="419" t="s">
+      <c r="B15" s="406" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="419"/>
-      <c r="D15" s="419"/>
+      <c r="C15" s="406"/>
+      <c r="D15" s="406"/>
       <c r="E15" s="23">
         <v>170</v>
       </c>
@@ -22324,14 +22328,14 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="406" t="s">
+      <c r="B17" s="430" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="407"/>
-      <c r="D17" s="407"/>
-      <c r="E17" s="407"/>
-      <c r="F17" s="407"/>
-      <c r="G17" s="408"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="431"/>
+      <c r="G17" s="432"/>
       <c r="I17" s="28" t="s">
         <v>85</v>
       </c>
@@ -22343,7 +22347,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="409" t="s">
+      <c r="B18" s="420" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -22372,18 +22376,18 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="409"/>
+      <c r="B19" s="420"/>
       <c r="C19" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="15">
         <v>166.4</v>
       </c>
-      <c r="E19" s="410" t="s">
+      <c r="E19" s="421" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="413"/>
-      <c r="G19" s="416">
+      <c r="F19" s="424"/>
+      <c r="G19" s="427">
         <f>(SQRT(3)*D21*D18*D19*D22)/((VLOOKUP(D20:D20,'Area cable'!B11:C37,2,FALSE))*F18)/2</f>
         <v>8.0196811946384727E-3</v>
       </c>
@@ -22398,39 +22402,44 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="409"/>
+      <c r="B20" s="420"/>
       <c r="C20" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="411"/>
-      <c r="F20" s="414"/>
-      <c r="G20" s="417"/>
+      <c r="E20" s="422"/>
+      <c r="F20" s="425"/>
+      <c r="G20" s="428"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="409"/>
+      <c r="B21" s="420"/>
       <c r="C21" s="25"/>
       <c r="D21" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E21" s="411"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="417"/>
+      <c r="E21" s="422"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="428"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="409"/>
+      <c r="B22" s="420"/>
       <c r="C22" s="25"/>
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="412"/>
-      <c r="F22" s="415"/>
-      <c r="G22" s="418"/>
+      <c r="E22" s="423"/>
+      <c r="F22" s="426"/>
+      <c r="G22" s="429"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="D3:G3"/>
@@ -22440,11 +22449,6 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22488,30 +22492,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="420" t="s">
+      <c r="D1" s="407" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="422"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="409"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="423"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="425"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="412"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="426" t="s">
+      <c r="D3" s="413" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="428"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="415"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
@@ -22538,23 +22542,23 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="429" t="s">
+      <c r="B8" s="416" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="431"/>
+      <c r="C8" s="417"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="418"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="432" t="s">
+      <c r="I8" s="419" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="432"/>
-      <c r="K8" s="432"/>
+      <c r="J8" s="419"/>
+      <c r="K8" s="419"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="409" t="s">
+      <c r="B9" s="420" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -22584,18 +22588,18 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="409"/>
+      <c r="B10" s="420"/>
       <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="15">
         <v>41.6</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="421" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="413"/>
-      <c r="G10" s="416">
+      <c r="F10" s="424"/>
+      <c r="G10" s="427">
         <f>(SQRT(3)*D12*D9*D10*D13)/((VLOOKUP(D11:D11,'Area cable'!B2:C28,2,FALSE))*F9)/2</f>
         <v>2.8176903089637238E-3</v>
       </c>
@@ -22611,16 +22615,16 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="409"/>
+      <c r="B11" s="420"/>
       <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="411"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="417"/>
+      <c r="E11" s="422"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="428"/>
       <c r="H11" s="31"/>
       <c r="I11" s="28" t="s">
         <v>80</v>
@@ -22631,14 +22635,14 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="409"/>
+      <c r="B12" s="420"/>
       <c r="C12" s="25"/>
       <c r="D12" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E12" s="411"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="417"/>
+      <c r="E12" s="422"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="428"/>
       <c r="H12" s="31"/>
       <c r="I12" s="28" t="s">
         <v>99</v>
@@ -22649,14 +22653,14 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="409"/>
+      <c r="B13" s="420"/>
       <c r="C13" s="25"/>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="412"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="418"/>
+      <c r="E13" s="423"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="429"/>
       <c r="H13" s="31"/>
       <c r="I13" s="28" t="s">
         <v>81</v>
@@ -22787,30 +22791,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="420" t="s">
+      <c r="D1" s="407" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="422"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="409"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="423"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="425"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="412"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="426" t="s">
+      <c r="D3" s="413" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="428"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="415"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
@@ -22837,23 +22841,23 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="429" t="s">
+      <c r="B8" s="416" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="431"/>
+      <c r="C8" s="417"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
+      <c r="F8" s="417"/>
+      <c r="G8" s="418"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="432" t="s">
+      <c r="I8" s="419" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="432"/>
-      <c r="K8" s="432"/>
+      <c r="J8" s="419"/>
+      <c r="K8" s="419"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="409" t="s">
+      <c r="B9" s="420" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -22883,18 +22887,18 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="409"/>
+      <c r="B10" s="420"/>
       <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="15">
         <v>27.7</v>
       </c>
-      <c r="E10" s="410" t="s">
+      <c r="E10" s="421" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="413"/>
-      <c r="G10" s="416">
+      <c r="F10" s="424"/>
+      <c r="G10" s="427">
         <f>(SQRT(3)*D12*D9*D10*D13)/((VLOOKUP(D11:D11,'Area cable'!B2:C28,2,FALSE))*F9)/2</f>
         <v>1.8762024413051721E-3</v>
       </c>
@@ -22910,16 +22914,16 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="409"/>
+      <c r="B11" s="420"/>
       <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="411"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="417"/>
+      <c r="E11" s="422"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="428"/>
       <c r="H11" s="31"/>
       <c r="I11" s="28" t="s">
         <v>80</v>
@@ -22930,14 +22934,14 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="409"/>
+      <c r="B12" s="420"/>
       <c r="C12" s="25"/>
       <c r="D12" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E12" s="411"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="417"/>
+      <c r="E12" s="422"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="428"/>
       <c r="H12" s="31"/>
       <c r="I12" s="28" t="s">
         <v>99</v>
@@ -22948,14 +22952,14 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="409"/>
+      <c r="B13" s="420"/>
       <c r="C13" s="25"/>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="412"/>
-      <c r="F13" s="415"/>
-      <c r="G13" s="418"/>
+      <c r="E13" s="423"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="429"/>
       <c r="H13" s="31"/>
       <c r="I13" s="28" t="s">
         <v>81</v>
@@ -24245,12 +24249,12 @@
       <c r="C30" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="257" t="s">
+      <c r="G30" s="254" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="257"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="143" t="s">
@@ -24261,7 +24265,7 @@
         <v>14.3125</v>
       </c>
       <c r="E32" s="45"/>
-      <c r="G32" s="257"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="143" t="s">
@@ -24272,10 +24276,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="144"/>
-      <c r="G33" s="257"/>
+      <c r="G33" s="254"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="257"/>
+      <c r="G34" s="254"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="143" t="s">
@@ -24287,7 +24291,7 @@
       <c r="C35" t="s">
         <v>371</v>
       </c>
-      <c r="G35" s="257"/>
+      <c r="G35" s="254"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="143" t="s">
@@ -24338,20 +24342,20 @@
         <f>IF(B42&gt;=B40,"OK","ERROR")</f>
         <v>OK</v>
       </c>
-      <c r="B44" s="254" t="str">
+      <c r="B44" s="255" t="str">
         <f>IF(A44="OK","Protección seleccionada es mayor a la corriente minima de OCPD",IF(A44="ERROR","La protección seleccionada debe ser mayor a la corriente minima de OCPD"))</f>
         <v>Protección seleccionada es mayor a la corriente minima de OCPD</v>
       </c>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="C44" s="255"/>
+      <c r="D44" s="255"/>
       <c r="F44" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="254"/>
+      <c r="B45" s="255"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="255"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -24373,15 +24377,15 @@
       <c r="B49" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="255" t="s">
+      <c r="C49" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="D49" s="256"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
+      <c r="D49" s="257"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="140" t="str">
@@ -24443,17 +24447,17 @@
         <f>IF(AND(B56="SI",B52="SI"), "OK",IF(OR(B56="NO",B52="NO"),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B58" s="254" t="str">
+      <c r="B58" s="255" t="str">
         <f>IF(AND(B56="SI",B52="SI"), "La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado",IF(OR(B56="NO",B52="NO"),"Realice un nuevo cálculo del cableado a utilizar o de la protección contra sobrecorrientes a utilizar"))</f>
         <v>La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
+      <c r="C58" s="255"/>
+      <c r="D58" s="255"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
+      <c r="B59" s="255"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="255"/>
       <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24897,28 +24901,28 @@
         <f>IF(B99&lt;=B100,"OK",IF(B99&gt;B100,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B102" s="254" t="str">
+      <c r="B102" s="255" t="str">
         <f>IF(B99&lt;=B100,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(B99&gt;B100,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="C102" s="254"/>
-      <c r="D102" s="254"/>
+      <c r="C102" s="255"/>
+      <c r="D102" s="255"/>
       <c r="E102" s="147" t="str">
         <f>IF(F99&lt;=F100,"OK",IF(F99&gt;F100,"ERROR"))</f>
         <v>ERROR</v>
       </c>
-      <c r="F102" s="254" t="str">
+      <c r="F102" s="255" t="str">
         <f>IF(F99&lt;=F100,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(F99&gt;F100,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="G102" s="254"/>
+      <c r="G102" s="255"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="254"/>
-      <c r="C103" s="254"/>
-      <c r="D103" s="254"/>
-      <c r="F103" s="254"/>
-      <c r="G103" s="254"/>
+      <c r="B103" s="255"/>
+      <c r="C103" s="255"/>
+      <c r="D103" s="255"/>
+      <c r="F103" s="255"/>
+      <c r="G103" s="255"/>
     </row>
     <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -25325,29 +25329,29 @@
         <f>IF(AND(B138&lt;=B139,B133&lt;=B134),"OK",IF(OR(B138&gt;B139,B133&gt;B134),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B141" s="254" t="e">
+      <c r="B141" s="255" t="e">
         <f>IF(AND(B138&lt;=B139,B133&lt;=B134),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(B138&gt;B139,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(B133&gt;B134,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C141" s="254"/>
-      <c r="D141" s="254"/>
+      <c r="C141" s="255"/>
+      <c r="D141" s="255"/>
       <c r="E141" s="147" t="e">
         <f>IF(AND(F138&lt;=F139,F133&lt;=F134),"OK",IF(OR(F138&gt;F139,F133&gt;F134),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F141" s="254" t="e">
+      <c r="F141" s="255" t="e">
         <f>IF(AND(F138&lt;=F139,F133&lt;=F134),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(F138&gt;F139,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(F133&gt;F134,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="254"/>
+      <c r="G141" s="255"/>
       <c r="H141" s="195"/>
     </row>
     <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="254"/>
-      <c r="C142" s="254"/>
-      <c r="D142" s="254"/>
-      <c r="F142" s="254"/>
-      <c r="G142" s="254"/>
+      <c r="B142" s="255"/>
+      <c r="C142" s="255"/>
+      <c r="D142" s="255"/>
+      <c r="F142" s="255"/>
+      <c r="G142" s="255"/>
       <c r="H142" s="195"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -25758,12 +25762,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="B44:D45"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="B141:D142"/>
     <mergeCell ref="F141:G142"/>
@@ -25774,6 +25772,12 @@
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="B102:D103"/>
     <mergeCell ref="F102:G103"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B44:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="A44">
     <cfRule type="containsText" dxfId="221" priority="29" operator="containsText" text="OK">
@@ -26267,12 +26271,12 @@
       <c r="C30" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="257" t="s">
+      <c r="G30" s="254" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="257"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="143" t="s">
@@ -26283,7 +26287,7 @@
         <v>13.928571428571431</v>
       </c>
       <c r="E32" s="45"/>
-      <c r="G32" s="257"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="143" t="s">
@@ -26294,10 +26298,10 @@
         <v>18</v>
       </c>
       <c r="C33" s="144"/>
-      <c r="G33" s="257"/>
+      <c r="G33" s="254"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="257"/>
+      <c r="G34" s="254"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="143" t="s">
@@ -26309,7 +26313,7 @@
       <c r="C35" t="s">
         <v>371</v>
       </c>
-      <c r="G35" s="257"/>
+      <c r="G35" s="254"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="143" t="s">
@@ -26360,20 +26364,20 @@
         <f>IF(B42&gt;=B40,"OK","ERROR")</f>
         <v>OK</v>
       </c>
-      <c r="B44" s="254" t="str">
+      <c r="B44" s="255" t="str">
         <f>IF(A44="OK","Protección seleccionada es mayor a la corriente minima de OCPD",IF(A44="ERROR","La protección seleccionada debe ser mayor a la corriente minima de OCPD"))</f>
         <v>Protección seleccionada es mayor a la corriente minima de OCPD</v>
       </c>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="C44" s="255"/>
+      <c r="D44" s="255"/>
       <c r="F44" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="254"/>
+      <c r="B45" s="255"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="255"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -26395,15 +26399,15 @@
       <c r="B49" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="255" t="s">
+      <c r="C49" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="D49" s="256"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
+      <c r="D49" s="257"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="257"/>
+      <c r="H49" s="257"/>
+      <c r="I49" s="257"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="140" t="str">
@@ -26465,17 +26469,17 @@
         <f>IF(AND(B56="SI",B52="SI"), "OK",IF(OR(B56="NO",B52="NO"),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B58" s="254" t="str">
+      <c r="B58" s="255" t="str">
         <f>IF(AND(B56="SI",B52="SI"), "La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado",IF(OR(B56="NO",B52="NO"),"Realice un nuevo cálculo del cableado a utilizar o de la protección contra sobrecorrientes a utilizar"))</f>
         <v>La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
+      <c r="C58" s="255"/>
+      <c r="D58" s="255"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="254"/>
-      <c r="C59" s="254"/>
-      <c r="D59" s="254"/>
+      <c r="B59" s="255"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="255"/>
       <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26908,28 +26912,28 @@
         <f>IF(B99&lt;=B100,"OK",IF(B99&gt;B100,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B102" s="254" t="str">
+      <c r="B102" s="255" t="str">
         <f>IF(B99&lt;=B100,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(B99&gt;B100,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="C102" s="254"/>
-      <c r="D102" s="254"/>
+      <c r="C102" s="255"/>
+      <c r="D102" s="255"/>
       <c r="E102" s="147" t="e">
         <f>IF(F99&lt;=F100,"OK",IF(F99&gt;F100,"ERROR"))</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="254" t="e">
+      <c r="F102" s="255" t="e">
         <f>IF(F99&lt;=F100,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(F99&gt;F100,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="254"/>
+      <c r="G102" s="255"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="254"/>
-      <c r="C103" s="254"/>
-      <c r="D103" s="254"/>
-      <c r="F103" s="254"/>
-      <c r="G103" s="254"/>
+      <c r="B103" s="255"/>
+      <c r="C103" s="255"/>
+      <c r="D103" s="255"/>
+      <c r="F103" s="255"/>
+      <c r="G103" s="255"/>
     </row>
     <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -27336,29 +27340,29 @@
         <f>IF(AND(B138&lt;=B139,B133&lt;=B134),"OK",IF(OR(B138&gt;B139,B133&gt;B134),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B141" s="254" t="e">
+      <c r="B141" s="255" t="e">
         <f>IF(AND(B138&lt;=B139,B133&lt;=B134),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(B138&gt;B139,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(B133&gt;B134,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C141" s="254"/>
-      <c r="D141" s="254"/>
+      <c r="C141" s="255"/>
+      <c r="D141" s="255"/>
       <c r="E141" s="147" t="e">
         <f>IF(AND(F138&lt;=F139,F133&lt;=F134),"OK",IF(OR(F138&gt;F139,F133&gt;F134),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F141" s="254" t="e">
+      <c r="F141" s="255" t="e">
         <f>IF(AND(F138&lt;=F139,F133&lt;=F134),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(F138&gt;F139,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(F133&gt;F134,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="254"/>
+      <c r="G141" s="255"/>
       <c r="H141" s="195"/>
     </row>
     <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="254"/>
-      <c r="C142" s="254"/>
-      <c r="D142" s="254"/>
-      <c r="F142" s="254"/>
-      <c r="G142" s="254"/>
+      <c r="B142" s="255"/>
+      <c r="C142" s="255"/>
+      <c r="D142" s="255"/>
+      <c r="F142" s="255"/>
+      <c r="G142" s="255"/>
       <c r="H142" s="195"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -27769,12 +27773,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="B44:D45"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="B141:D142"/>
     <mergeCell ref="F141:G142"/>
@@ -27785,6 +27783,12 @@
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="B102:D103"/>
     <mergeCell ref="F102:G103"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B44:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="A44">
     <cfRule type="containsText" dxfId="177" priority="29" operator="containsText" text="OK">
@@ -27999,7 +28003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB88D058-6722-4D22-890F-08A73E71BEF3}">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -28233,12 +28237,12 @@
       <c r="C27" t="s">
         <v>301</v>
       </c>
-      <c r="G27" s="257" t="s">
+      <c r="G27" s="254" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="257"/>
+      <c r="G28" s="254"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="143" t="s">
@@ -28249,7 +28253,7 @@
         <v>53.75</v>
       </c>
       <c r="E29" s="45"/>
-      <c r="G29" s="257"/>
+      <c r="G29" s="254"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="143" t="s">
@@ -28260,10 +28264,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="144"/>
-      <c r="G30" s="257"/>
+      <c r="G30" s="254"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="257"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="143" t="s">
@@ -28275,7 +28279,7 @@
       <c r="C32" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="257"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="253" t="s">
@@ -28322,20 +28326,20 @@
         <f>IF(B38&gt;=B36,"OK","ERROR")</f>
         <v>ERROR</v>
       </c>
-      <c r="B40" s="254" t="str">
+      <c r="B40" s="255" t="str">
         <f>IF(A40="OK","Protección seleccionada es mayor a la corriente minima de OCPD",IF(A40="ERROR","La protección seleccionada debe ser mayor a la corriente minima de OCPD"))</f>
         <v>La protección seleccionada debe ser mayor a la corriente minima de OCPD</v>
       </c>
-      <c r="C40" s="254"/>
-      <c r="D40" s="254"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="255"/>
       <c r="F40" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
+      <c r="B41" s="255"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="255"/>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -28357,15 +28361,15 @@
       <c r="B45" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="255" t="s">
+      <c r="C45" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
-      <c r="I45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="257"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="140" t="str">
@@ -28431,17 +28435,17 @@
         <f>IF(AND(B52="SI",B48="SI"), "OK",IF(OR(B52="NO",B48="NO"),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B54" s="254" t="str">
+      <c r="B54" s="255" t="str">
         <f>IF(AND(B52="SI",B48="SI"), "La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado",IF(OR(B52="NO",B48="NO"),"Realice un nuevo cálculo del cableado a utilizar o de la protección contra sobrecorrientes a utilizar"))</f>
         <v>La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
+      <c r="C54" s="255"/>
+      <c r="D54" s="255"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="254"/>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
+      <c r="B55" s="255"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
       <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28855,28 +28859,28 @@
         <f>IF(B94&lt;=B95,"OK",IF(B94&gt;B95,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B97" s="254" t="str">
+      <c r="B97" s="255" t="str">
         <f>IF(B94&lt;=B95,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(B94&gt;B95,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="C97" s="254"/>
-      <c r="D97" s="254"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="255"/>
       <c r="E97" s="147" t="str">
         <f>IF(F94&lt;=F95,"OK",IF(F94&gt;F95,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="F97" s="254" t="str">
+      <c r="F97" s="255" t="str">
         <f>IF(F94&lt;=F95,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(F94&gt;F95,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="G97" s="254"/>
+      <c r="G97" s="255"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="254"/>
-      <c r="C98" s="254"/>
-      <c r="D98" s="254"/>
-      <c r="F98" s="254"/>
-      <c r="G98" s="254"/>
+      <c r="B98" s="255"/>
+      <c r="C98" s="255"/>
+      <c r="D98" s="255"/>
+      <c r="F98" s="255"/>
+      <c r="G98" s="255"/>
     </row>
     <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -29296,29 +29300,29 @@
         <f>IF(AND(B133&lt;=B134,B128&lt;=B129),"OK",IF(OR(B133&gt;B134,B128&gt;B129),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B136" s="254" t="str">
+      <c r="B136" s="255" t="str">
         <f>IF(AND(B133&lt;=B134,B128&lt;=B129),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(B133&gt;B134,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(B128&gt;B129,"la bandeja ")))</f>
         <v>La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE</v>
       </c>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
+      <c r="C136" s="255"/>
+      <c r="D136" s="255"/>
       <c r="E136" s="147" t="e">
         <f>IF(AND(F133&lt;=F134,F128&lt;=F129),"OK",IF(OR(F133&gt;F134,F128&gt;F129),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F136" s="254" t="e">
+      <c r="F136" s="255" t="e">
         <f>IF(AND(F133&lt;=F134,F128&lt;=F129),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(F133&gt;F134,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(F128&gt;F129,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="254"/>
+      <c r="G136" s="255"/>
       <c r="H136" s="195"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="254"/>
-      <c r="C137" s="254"/>
-      <c r="D137" s="254"/>
-      <c r="F137" s="254"/>
-      <c r="G137" s="254"/>
+      <c r="B137" s="255"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="F137" s="255"/>
+      <c r="G137" s="255"/>
       <c r="H137" s="195"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -29593,6 +29597,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B40:D41"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="B136:D137"/>
     <mergeCell ref="F136:G137"/>
@@ -29603,12 +29613,6 @@
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="B97:D98"/>
     <mergeCell ref="F97:G98"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B40:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="A40">
     <cfRule type="containsText" dxfId="133" priority="29" operator="containsText" text="OK">
@@ -30045,12 +30049,12 @@
       <c r="C27" t="s">
         <v>301</v>
       </c>
-      <c r="G27" s="257" t="s">
+      <c r="G27" s="254" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="257"/>
+      <c r="G28" s="254"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="143" t="s">
@@ -30061,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="45"/>
-      <c r="G29" s="257"/>
+      <c r="G29" s="254"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="143" t="s">
@@ -30072,10 +30076,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="144"/>
-      <c r="G30" s="257"/>
+      <c r="G30" s="254"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="257"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="143" t="s">
@@ -30087,7 +30091,7 @@
       <c r="C32" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="257"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="253" t="s">
@@ -30129,20 +30133,20 @@
         <f>IF(B38&gt;=B36,"OK","ERROR")</f>
         <v>OK</v>
       </c>
-      <c r="B40" s="254" t="str">
+      <c r="B40" s="255" t="str">
         <f>IF(A40="OK","Protección seleccionada es mayor a la corriente minima de OCPD",IF(A40="ERROR","La protección seleccionada debe ser mayor a la corriente minima de OCPD"))</f>
         <v>Protección seleccionada es mayor a la corriente minima de OCPD</v>
       </c>
-      <c r="C40" s="254"/>
-      <c r="D40" s="254"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="255"/>
       <c r="F40" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
+      <c r="B41" s="255"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="255"/>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -30164,15 +30168,15 @@
       <c r="B45" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="255" t="s">
+      <c r="C45" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
-      <c r="I45" s="256"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="257"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="140" t="str">
@@ -30234,17 +30238,17 @@
         <f>IF(AND(B52="SI",B48="SI"), "OK",IF(OR(B52="NO",B48="NO"),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B54" s="254" t="str">
+      <c r="B54" s="255" t="str">
         <f>IF(AND(B52="SI",B48="SI"), "La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado",IF(OR(B52="NO",B48="NO"),"Realice un nuevo cálculo del cableado a utilizar o de la protección contra sobrecorrientes a utilizar"))</f>
         <v>La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
+      <c r="C54" s="255"/>
+      <c r="D54" s="255"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="254"/>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
+      <c r="B55" s="255"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
       <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30654,28 +30658,28 @@
         <f>IF(B94&lt;=B95,"OK",IF(B94&gt;B95,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B97" s="254" t="str">
+      <c r="B97" s="255" t="str">
         <f>IF(B94&lt;=B95,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(B94&gt;B95,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="C97" s="254"/>
-      <c r="D97" s="254"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="255"/>
       <c r="E97" s="147" t="e">
         <f>IF(F94&lt;=F95,"OK",IF(F94&gt;F95,"ERROR"))</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="254" t="e">
+      <c r="F97" s="255" t="e">
         <f>IF(F94&lt;=F95,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(F94&gt;F95,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="254"/>
+      <c r="G97" s="255"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="254"/>
-      <c r="C98" s="254"/>
-      <c r="D98" s="254"/>
-      <c r="F98" s="254"/>
-      <c r="G98" s="254"/>
+      <c r="B98" s="255"/>
+      <c r="C98" s="255"/>
+      <c r="D98" s="255"/>
+      <c r="F98" s="255"/>
+      <c r="G98" s="255"/>
     </row>
     <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -31095,29 +31099,29 @@
         <f>IF(AND(B133&lt;=B134,B128&lt;=B129),"OK",IF(OR(B133&gt;B134,B128&gt;B129),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B136" s="254" t="str">
+      <c r="B136" s="255" t="str">
         <f>IF(AND(B133&lt;=B134,B128&lt;=B129),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(B133&gt;B134,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(B128&gt;B129,"la bandeja ")))</f>
         <v>La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE</v>
       </c>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
+      <c r="C136" s="255"/>
+      <c r="D136" s="255"/>
       <c r="E136" s="147" t="e">
         <f>IF(AND(F133&lt;=F134,F128&lt;=F129),"OK",IF(OR(F133&gt;F134,F128&gt;F129),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F136" s="254" t="e">
+      <c r="F136" s="255" t="e">
         <f>IF(AND(F133&lt;=F134,F128&lt;=F129),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(F133&gt;F134,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(F128&gt;F129,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="254"/>
+      <c r="G136" s="255"/>
       <c r="H136" s="195"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="254"/>
-      <c r="C137" s="254"/>
-      <c r="D137" s="254"/>
-      <c r="F137" s="254"/>
-      <c r="G137" s="254"/>
+      <c r="B137" s="255"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="F137" s="255"/>
+      <c r="G137" s="255"/>
       <c r="H137" s="195"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -31392,6 +31396,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B40:D41"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="B136:D137"/>
     <mergeCell ref="F136:G137"/>
@@ -31402,12 +31412,6 @@
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="B97:D98"/>
     <mergeCell ref="F97:G98"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B40:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="A40">
     <cfRule type="containsText" dxfId="89" priority="33" operator="containsText" text="OK">
@@ -31927,12 +31931,12 @@
       <c r="C28" t="s">
         <v>301</v>
       </c>
-      <c r="G28" s="257" t="s">
+      <c r="G28" s="254" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="257"/>
+      <c r="G29" s="254"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="143" t="s">
@@ -31943,7 +31947,7 @@
         <v>322.5</v>
       </c>
       <c r="E30" s="45"/>
-      <c r="G30" s="257"/>
+      <c r="G30" s="254"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="143" t="s">
@@ -31954,10 +31958,10 @@
         <v>350</v>
       </c>
       <c r="C31" s="144"/>
-      <c r="G31" s="257"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="257"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="143" t="s">
@@ -31969,7 +31973,7 @@
       <c r="C33" t="s">
         <v>371</v>
       </c>
-      <c r="G33" s="257"/>
+      <c r="G33" s="254"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="253" t="s">
@@ -32011,20 +32015,20 @@
         <f>IF(B39&gt;=B37,"OK","ERROR")</f>
         <v>OK</v>
       </c>
-      <c r="B41" s="254" t="str">
+      <c r="B41" s="255" t="str">
         <f>IF(A41="OK","Protección seleccionada es mayor a la corriente minima de OCPD",IF(A41="ERROR","La protección seleccionada debe ser mayor a la corriente minima de OCPD"))</f>
         <v>Protección seleccionada es mayor a la corriente minima de OCPD</v>
       </c>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="255"/>
       <c r="F41" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="254"/>
+      <c r="B42" s="255"/>
+      <c r="C42" s="255"/>
+      <c r="D42" s="255"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -32046,15 +32050,15 @@
       <c r="B46" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="255" t="s">
+      <c r="C46" s="256" t="s">
         <v>335</v>
       </c>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="256"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="257"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="140" t="str">
@@ -32124,17 +32128,17 @@
         <f>IF(AND(B53="SI",B49="SI"), "OK",IF(OR(B53="NO",B49="NO"),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B55" s="254" t="str">
+      <c r="B55" s="255" t="str">
         <f>IF(AND(B53="SI",B49="SI"), "La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado",IF(OR(B53="NO",B49="NO"),"Realice un nuevo cálculo del cableado a utilizar o de la protección contra sobrecorrientes a utilizar"))</f>
         <v>La protección contra sobrecorrientes seleccionada funciona correctamente con el cable seleccionado</v>
       </c>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="254"/>
-      <c r="C56" s="254"/>
-      <c r="D56" s="254"/>
+      <c r="B56" s="255"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="255"/>
       <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32506,28 +32510,28 @@
         <f>IF(B93&lt;=B94,"OK",IF(B93&gt;B94,"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B96" s="254" t="str">
+      <c r="B96" s="255" t="str">
         <f>IF(B93&lt;=B94,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(B93&gt;B94,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050</v>
       </c>
-      <c r="C96" s="254"/>
-      <c r="D96" s="254"/>
+      <c r="C96" s="255"/>
+      <c r="D96" s="255"/>
       <c r="E96" s="147" t="e">
         <f>IF(F93&lt;=F94,"OK",IF(F93&gt;F94,"ERROR"))</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="254" t="e">
+      <c r="F96" s="255" t="e">
         <f>IF(F93&lt;=F94,"La tuberia seleccionada cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050",IF(F93&gt;F94,"La tuberia seleccionada NO cumple con los porcentajes de la tabla 1 del capitulo 9 de la NTC 2050"))</f>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="254"/>
+      <c r="G96" s="255"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="254"/>
-      <c r="C97" s="254"/>
-      <c r="D97" s="254"/>
-      <c r="F97" s="254"/>
-      <c r="G97" s="254"/>
+      <c r="B97" s="255"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="255"/>
+      <c r="F97" s="255"/>
+      <c r="G97" s="255"/>
     </row>
     <row r="98" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -32954,29 +32958,29 @@
         <f>IF(AND(B132&lt;=B133,B127&lt;=B128),"OK",IF(OR(B132&gt;B133,B127&gt;B128),"ERROR"))</f>
         <v>OK</v>
       </c>
-      <c r="B135" s="254" t="str">
+      <c r="B135" s="255" t="str">
         <f>IF(AND(B132&lt;=B133,B127&lt;=B128),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(B132&gt;B133,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(B127&gt;B128,"la bandeja ")))</f>
         <v>La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE</v>
       </c>
-      <c r="C135" s="254"/>
-      <c r="D135" s="254"/>
+      <c r="C135" s="255"/>
+      <c r="D135" s="255"/>
       <c r="E135" s="147" t="e">
         <f>IF(AND(F132&lt;=F133,F127&lt;=F128),"OK",IF(OR(F132&gt;F133,F127&gt;F128),"ERROR"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F135" s="254" t="e">
+      <c r="F135" s="255" t="e">
         <f>IF(AND(F132&lt;=F133,F127&lt;=F128),"La bandeja seleccionada cumple con el articulo 318-10 b) de la NTC 2050 y el articulo 20.3 i) del RETIE",IF(F132&gt;F133,"El porcentaje de ocupacion del area transversal de la bandeja es mayor al 40%",IF(F127&gt;F128,"la bandeja ")))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G135" s="254"/>
+      <c r="G135" s="255"/>
       <c r="H135" s="195"/>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="254"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
-      <c r="F136" s="254"/>
-      <c r="G136" s="254"/>
+      <c r="B136" s="255"/>
+      <c r="C136" s="255"/>
+      <c r="D136" s="255"/>
+      <c r="F136" s="255"/>
+      <c r="G136" s="255"/>
       <c r="H136" s="195"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -33251,6 +33255,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B41:D42"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="B135:D136"/>
     <mergeCell ref="F135:G136"/>
@@ -33261,12 +33271,6 @@
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="B96:D97"/>
     <mergeCell ref="F96:G97"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B41:D42"/>
   </mergeCells>
   <conditionalFormatting sqref="A41">
     <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="OK">
@@ -33514,47 +33518,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="W1" s="273" t="s">
+      <c r="W1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="X1" s="273"/>
+      <c r="X1" s="264"/>
       <c r="Y1" s="34">
         <v>1</v>
       </c>
-      <c r="AD1" s="273" t="s">
+      <c r="AD1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="273"/>
+      <c r="AE1" s="264"/>
       <c r="AF1" s="34">
         <v>1</v>
       </c>
-      <c r="AK1" s="273" t="s">
+      <c r="AK1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" s="273"/>
+      <c r="AL1" s="264"/>
       <c r="AM1" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W2" s="273" t="s">
+      <c r="W2" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="X2" s="273"/>
+      <c r="X2" s="264"/>
       <c r="Y2" s="197" t="s">
         <v>456</v>
       </c>
-      <c r="AD2" s="273" t="s">
+      <c r="AD2" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="AE2" s="273"/>
+      <c r="AE2" s="264"/>
       <c r="AF2" s="197" t="s">
         <v>456</v>
       </c>
-      <c r="AK2" s="273" t="s">
+      <c r="AK2" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="AL2" s="273"/>
+      <c r="AL2" s="264"/>
       <c r="AM2" s="197" t="s">
         <v>456</v>
       </c>
@@ -33749,89 +33753,89 @@
         <f>Q4+MAX(I4:I5)</f>
         <v>8.9119827275998577E-3</v>
       </c>
-      <c r="S4" s="275">
+      <c r="S4" s="263">
         <v>1</v>
       </c>
-      <c r="T4" s="275">
+      <c r="T4" s="263">
         <v>2.5</v>
       </c>
-      <c r="U4" s="275">
+      <c r="U4" s="263">
         <f>'INV1_TABLERO FV'!$B$7</f>
         <v>43</v>
       </c>
-      <c r="V4" s="275">
+      <c r="V4" s="263">
         <f>'INV1_TABLERO FV'!$B$6</f>
         <v>240</v>
       </c>
-      <c r="W4" s="275" t="s">
+      <c r="W4" s="263" t="s">
         <v>202</v>
       </c>
-      <c r="X4" s="275" t="s">
+      <c r="X4" s="263" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="276">
+      <c r="Y4" s="268">
         <f>(((IF(W4="COBRE",VLOOKUP(X4,'Cap 9 NTC'!N44:S64,MATCH($Y$2,'Cap 9 NTC'!R43:S43,0)+4,FALSE),VLOOKUP(X4,'Cap 9 NTC'!N44:U64,MATCH($Y$2,'Cap 9 NTC'!T43:U43,0)+6,FALSE)))*$Y$1)+(VLOOKUP(X4,'Cap 9 NTC'!N44:Q64,MATCH($Y$2,'Cap 9 NTC'!P43:Q43,0)+2,FALSE))*SIN(ACOS($Y$1)))</f>
         <v>3.94</v>
       </c>
-      <c r="Z4" s="277">
+      <c r="Z4" s="259">
         <f>IF(S4="",0,(SQRT(3)*T4/1000*U4*Y4)/V4)</f>
         <v>3.0567088314408242E-3</v>
       </c>
-      <c r="AA4" s="274">
+      <c r="AA4" s="262">
         <v>2</v>
       </c>
-      <c r="AB4" s="274">
+      <c r="AB4" s="262">
         <f>SUM(U4:U7)</f>
         <v>43</v>
       </c>
-      <c r="AC4" s="274">
+      <c r="AC4" s="262">
         <f>V4</f>
         <v>240</v>
       </c>
-      <c r="AD4" s="274" t="s">
+      <c r="AD4" s="262" t="s">
         <v>202</v>
       </c>
-      <c r="AE4" s="274" t="s">
+      <c r="AE4" s="262" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="278">
+      <c r="AF4" s="258">
         <f>(((IF(AD4="COBRE",VLOOKUP(AE4,'Cap 9 NTC'!N44:S64,MATCH(AF2,'Cap 9 NTC'!R43:S43,0)+4,FALSE),VLOOKUP(AE4,'Cap 9 NTC'!N44:U64,MATCH(AF2,'Cap 9 NTC'!T43:U43,0)+6,FALSE)))*$AF$1)+(VLOOKUP(AE4,'Cap 9 NTC'!N44:Q64,MATCH(AF2,'Cap 9 NTC'!P43:Q43,0)+2,FALSE))*SIN(ACOS($AF$1)))</f>
         <v>3.94</v>
       </c>
-      <c r="AG4" s="277">
+      <c r="AG4" s="259">
         <f>(SQRT(3)*AA4/1000*AB4*AF4)/AC4</f>
         <v>2.4453670651526597E-3</v>
       </c>
-      <c r="AH4" s="274">
+      <c r="AH4" s="262">
         <v>5</v>
       </c>
-      <c r="AI4" s="274" t="e">
+      <c r="AI4" s="262" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ4" s="274" t="e">
+      <c r="AJ4" s="262" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AK4" s="274" t="s">
+      <c r="AK4" s="262" t="s">
         <v>202</v>
       </c>
-      <c r="AL4" s="274" t="s">
+      <c r="AL4" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AM4" s="278">
+      <c r="AM4" s="258">
         <f>(((IF(AK4="COBRE",VLOOKUP(AL4,'Cap 9 NTC'!N44:S64,MATCH(AM2,'Cap 9 NTC'!R43:S43,0)+4,FALSE),VLOOKUP(AL4,'Cap 9 NTC'!N44:U64,MATCH(AM2,'Cap 9 NTC'!T43:U43,0)+6,FALSE)))*$AM$1)+(VLOOKUP(AL4,'Cap 9 NTC'!N44:Q64,MATCH(AM2,'Cap 9 NTC'!P43:Q43,0)+2,FALSE))*SIN(ACOS($AM$1)))</f>
         <v>0.20699999999999999</v>
       </c>
-      <c r="AN4" s="277" t="e">
+      <c r="AN4" s="259" t="e">
         <f>(SQRT(3)*AH4/1000*AI4*AM4)/AJ4</f>
         <v>#REF!</v>
       </c>
-      <c r="AO4" s="279">
+      <c r="AO4" s="260">
         <f>IF(S4="",0,AG4+Z4)</f>
         <v>5.5020758965934839E-3</v>
       </c>
-      <c r="AP4" s="280">
+      <c r="AP4" s="261">
         <f>AO4+MAX(Z4:Z7)+MAX(R4:R7)</f>
         <v>1.7470767455634167E-2</v>
       </c>
@@ -33878,30 +33882,30 @@
         <f>Q5+MAX(I5:I6)</f>
         <v>6.9315421214665553E-3</v>
       </c>
-      <c r="S5" s="275"/>
-      <c r="T5" s="275"/>
-      <c r="U5" s="275"/>
-      <c r="V5" s="275"/>
-      <c r="W5" s="275"/>
-      <c r="X5" s="275"/>
-      <c r="Y5" s="276"/>
-      <c r="Z5" s="277"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="278"/>
-      <c r="AG5" s="277"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="278"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="279"/>
-      <c r="AP5" s="280"/>
+      <c r="S5" s="263"/>
+      <c r="T5" s="263"/>
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="259"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="258"/>
+      <c r="AG5" s="259"/>
+      <c r="AH5" s="262"/>
+      <c r="AI5" s="262"/>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
+      <c r="AM5" s="258"/>
+      <c r="AN5" s="259"/>
+      <c r="AO5" s="260"/>
+      <c r="AP5" s="261"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -33965,30 +33969,30 @@
         <f>Q6+MAX(I6)</f>
         <v>6.6008528784648191E-3</v>
       </c>
-      <c r="S6" s="275"/>
-      <c r="T6" s="275"/>
-      <c r="U6" s="275"/>
-      <c r="V6" s="275"/>
-      <c r="W6" s="275"/>
-      <c r="X6" s="275"/>
-      <c r="Y6" s="276"/>
-      <c r="Z6" s="277"/>
-      <c r="AA6" s="274"/>
-      <c r="AB6" s="274"/>
-      <c r="AC6" s="274"/>
-      <c r="AD6" s="274"/>
-      <c r="AE6" s="274"/>
-      <c r="AF6" s="278"/>
-      <c r="AG6" s="277"/>
-      <c r="AH6" s="274"/>
-      <c r="AI6" s="274"/>
-      <c r="AJ6" s="274"/>
-      <c r="AK6" s="274"/>
-      <c r="AL6" s="274"/>
-      <c r="AM6" s="278"/>
-      <c r="AN6" s="277"/>
-      <c r="AO6" s="279"/>
-      <c r="AP6" s="280"/>
+      <c r="S6" s="263"/>
+      <c r="T6" s="263"/>
+      <c r="U6" s="263"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="268"/>
+      <c r="Z6" s="259"/>
+      <c r="AA6" s="262"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="262"/>
+      <c r="AD6" s="262"/>
+      <c r="AE6" s="262"/>
+      <c r="AF6" s="258"/>
+      <c r="AG6" s="259"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="262"/>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="258"/>
+      <c r="AN6" s="259"/>
+      <c r="AO6" s="260"/>
+      <c r="AP6" s="261"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
@@ -34029,30 +34033,30 @@
       <c r="P7" s="237"/>
       <c r="Q7" s="233"/>
       <c r="R7" s="233"/>
-      <c r="S7" s="275"/>
-      <c r="T7" s="275"/>
-      <c r="U7" s="275"/>
-      <c r="V7" s="275"/>
-      <c r="W7" s="275"/>
-      <c r="X7" s="275"/>
-      <c r="Y7" s="276"/>
-      <c r="Z7" s="277"/>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="274"/>
-      <c r="AC7" s="274"/>
-      <c r="AD7" s="274"/>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="278"/>
-      <c r="AG7" s="277"/>
-      <c r="AH7" s="274"/>
-      <c r="AI7" s="274"/>
-      <c r="AJ7" s="274"/>
-      <c r="AK7" s="274"/>
-      <c r="AL7" s="274"/>
-      <c r="AM7" s="278"/>
-      <c r="AN7" s="277"/>
-      <c r="AO7" s="279"/>
-      <c r="AP7" s="280"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="268"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="258"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="258"/>
+      <c r="AN7" s="259"/>
+      <c r="AO7" s="260"/>
+      <c r="AP7" s="261"/>
     </row>
     <row r="9" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -34075,14 +34079,14 @@
       <c r="A10" s="223" t="s">
         <v>534</v>
       </c>
-      <c r="B10" s="261">
+      <c r="B10" s="265">
         <f>I4</f>
         <v>8.9119827275998577E-3</v>
       </c>
-      <c r="C10" s="263">
+      <c r="C10" s="272">
         <v>1</v>
       </c>
-      <c r="D10" s="261">
+      <c r="D10" s="265">
         <f>Z4+AG4</f>
         <v>5.5020758965934839E-3</v>
       </c>
@@ -34095,9 +34099,9 @@
       <c r="A11" s="223" t="s">
         <v>535</v>
       </c>
-      <c r="B11" s="262"/>
-      <c r="C11" s="264"/>
-      <c r="D11" s="271"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="266"/>
       <c r="E11" s="220">
         <f>D11+B11</f>
         <v>0</v>
@@ -34112,8 +34116,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C12" s="265"/>
-      <c r="D12" s="262"/>
+      <c r="C12" s="274"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="220" t="e">
         <f>D12+B12</f>
         <v>#REF!</v>
@@ -34124,14 +34128,14 @@
       <c r="A13" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B13" s="269">
+      <c r="B13" s="278">
         <f>I6</f>
         <v>6.6008528784648191E-3</v>
       </c>
-      <c r="C13" s="266">
+      <c r="C13" s="275">
         <v>2</v>
       </c>
-      <c r="D13" s="269">
+      <c r="D13" s="278">
         <f>Z6+AG4</f>
         <v>2.4453670651526597E-3</v>
       </c>
@@ -34144,9 +34148,9 @@
       <c r="A14" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="B14" s="270"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="272"/>
+      <c r="B14" s="279"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="280"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
@@ -34156,22 +34160,22 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="270"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="279"/>
       <c r="V15" s="213"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="223" t="s">
         <v>540</v>
       </c>
-      <c r="B16" s="261" t="e">
+      <c r="B16" s="265" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C16" s="263">
+      <c r="C16" s="272">
         <v>3</v>
       </c>
-      <c r="D16" s="261" t="e">
+      <c r="D16" s="265" t="e">
         <f>#REF!+AG4</f>
         <v>#REF!</v>
       </c>
@@ -34180,9 +34184,9 @@
       <c r="A17" s="223" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="262"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="271"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="266"/>
       <c r="V17" s="213"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -34193,21 +34197,21 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C18" s="265"/>
-      <c r="D18" s="262"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="267"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="B19" s="258" t="e">
+      <c r="B19" s="269" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C19" s="266">
+      <c r="C19" s="275">
         <v>4</v>
       </c>
-      <c r="D19" s="258" t="e">
+      <c r="D19" s="269" t="e">
         <f>#REF!+AG4</f>
         <v>#REF!</v>
       </c>
@@ -34217,9 +34221,9 @@
       <c r="A20" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="B20" s="260"/>
-      <c r="C20" s="267"/>
-      <c r="D20" s="259"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="276"/>
+      <c r="D20" s="270"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
@@ -34229,26 +34233,22 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C21" s="268"/>
-      <c r="D21" s="260"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AH4:AH7"/>
@@ -34265,17 +34265,21 @@
     <mergeCell ref="X4:X7"/>
     <mergeCell ref="Y4:Y7"/>
     <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
   </mergeCells>
   <conditionalFormatting sqref="R4:R6">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThanOrEqual">
@@ -34365,17 +34369,17 @@
         <v>566</v>
       </c>
       <c r="C1" s="281"/>
-      <c r="X1" s="273" t="s">
+      <c r="X1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="273"/>
+      <c r="Y1" s="264"/>
       <c r="Z1" s="34">
         <v>1</v>
       </c>
-      <c r="AF1" s="273" t="s">
+      <c r="AF1" s="264" t="s">
         <v>162</v>
       </c>
-      <c r="AG1" s="273"/>
+      <c r="AG1" s="264"/>
       <c r="AH1" s="34">
         <v>1</v>
       </c>
@@ -34391,17 +34395,17 @@
       <c r="D2" s="228" t="s">
         <v>560</v>
       </c>
-      <c r="X2" s="273" t="s">
+      <c r="X2" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="Y2" s="273"/>
+      <c r="Y2" s="264"/>
       <c r="Z2" s="197" t="s">
         <v>456</v>
       </c>
-      <c r="AF2" s="273" t="s">
+      <c r="AF2" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="AG2" s="273"/>
+      <c r="AG2" s="264"/>
       <c r="AH2" s="197" t="s">
         <v>456</v>
       </c>
@@ -34556,35 +34560,35 @@
       <c r="Q4" s="237"/>
       <c r="R4" s="233"/>
       <c r="S4" s="233"/>
-      <c r="T4" s="264">
+      <c r="T4" s="273">
         <v>1</v>
       </c>
-      <c r="U4" s="264">
+      <c r="U4" s="273">
         <v>2.5</v>
       </c>
-      <c r="V4" s="264">
+      <c r="V4" s="273">
         <v>19</v>
       </c>
-      <c r="W4" s="264">
+      <c r="W4" s="273">
         <v>240</v>
       </c>
-      <c r="X4" s="264" t="s">
+      <c r="X4" s="273" t="s">
         <v>202</v>
       </c>
-      <c r="Y4" s="264">
+      <c r="Y4" s="273">
         <v>10</v>
       </c>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="285"/>
-      <c r="AB4" s="286"/>
+      <c r="Z4" s="289"/>
+      <c r="AA4" s="291"/>
+      <c r="AB4" s="292"/>
       <c r="AC4" s="287"/>
       <c r="AD4" s="287"/>
       <c r="AE4" s="287"/>
       <c r="AF4" s="287"/>
       <c r="AG4" s="287"/>
-      <c r="AH4" s="289"/>
-      <c r="AI4" s="282"/>
-      <c r="AJ4" s="282"/>
+      <c r="AH4" s="283"/>
+      <c r="AI4" s="288"/>
+      <c r="AJ4" s="288"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
@@ -34628,23 +34632,23 @@
       <c r="Q5" s="237"/>
       <c r="R5" s="233"/>
       <c r="S5" s="233"/>
-      <c r="T5" s="264"/>
-      <c r="U5" s="264"/>
-      <c r="V5" s="264"/>
-      <c r="W5" s="264"/>
-      <c r="X5" s="264"/>
-      <c r="Y5" s="264"/>
-      <c r="Z5" s="284"/>
-      <c r="AA5" s="285"/>
-      <c r="AB5" s="286"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="292"/>
       <c r="AC5" s="287"/>
       <c r="AD5" s="287"/>
       <c r="AE5" s="287"/>
       <c r="AF5" s="287"/>
       <c r="AG5" s="287"/>
-      <c r="AH5" s="289"/>
-      <c r="AI5" s="282"/>
-      <c r="AJ5" s="282"/>
+      <c r="AH5" s="283"/>
+      <c r="AI5" s="288"/>
+      <c r="AJ5" s="288"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="223" t="s">
@@ -34689,23 +34693,23 @@
       <c r="Q6" s="237"/>
       <c r="R6" s="233"/>
       <c r="S6" s="233"/>
-      <c r="T6" s="264"/>
-      <c r="U6" s="264"/>
-      <c r="V6" s="264"/>
-      <c r="W6" s="264"/>
-      <c r="X6" s="264"/>
-      <c r="Y6" s="264"/>
-      <c r="Z6" s="284"/>
-      <c r="AA6" s="285"/>
-      <c r="AB6" s="286"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="273"/>
+      <c r="W6" s="273"/>
+      <c r="X6" s="273"/>
+      <c r="Y6" s="273"/>
+      <c r="Z6" s="290"/>
+      <c r="AA6" s="291"/>
+      <c r="AB6" s="292"/>
       <c r="AC6" s="287"/>
       <c r="AD6" s="287"/>
       <c r="AE6" s="287"/>
       <c r="AF6" s="287"/>
       <c r="AG6" s="287"/>
-      <c r="AH6" s="289"/>
-      <c r="AI6" s="282"/>
-      <c r="AJ6" s="282"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="288"/>
+      <c r="AJ6" s="288"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="223" t="s">
@@ -34750,23 +34754,23 @@
       <c r="Q7" s="237"/>
       <c r="R7" s="233"/>
       <c r="S7" s="233"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="284"/>
-      <c r="AA7" s="285"/>
-      <c r="AB7" s="286"/>
+      <c r="T7" s="273"/>
+      <c r="U7" s="273"/>
+      <c r="V7" s="273"/>
+      <c r="W7" s="273"/>
+      <c r="X7" s="273"/>
+      <c r="Y7" s="273"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="291"/>
+      <c r="AB7" s="292"/>
       <c r="AC7" s="287"/>
       <c r="AD7" s="287"/>
       <c r="AE7" s="287"/>
       <c r="AF7" s="287"/>
       <c r="AG7" s="287"/>
-      <c r="AH7" s="289"/>
-      <c r="AI7" s="282"/>
-      <c r="AJ7" s="282"/>
+      <c r="AH7" s="283"/>
+      <c r="AI7" s="288"/>
+      <c r="AJ7" s="288"/>
     </row>
     <row r="10" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -34822,22 +34826,22 @@
         <f>SUM(AA4:AA7,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="290" t="e">
+      <c r="E11" s="284" t="e">
         <f>D11/$U$11</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="288" t="e">
+      <c r="F11" s="282" t="e">
         <f>SUM(D11,B11:B12)</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="277" t="e">
+      <c r="G11" s="259" t="e">
         <f>F11/$U$11</f>
         <v>#REF!</v>
       </c>
-      <c r="S11" s="291" t="s">
+      <c r="S11" s="285" t="s">
         <v>520</v>
       </c>
-      <c r="T11" s="292"/>
+      <c r="T11" s="286"/>
       <c r="U11" s="211">
         <v>36850</v>
       </c>
@@ -34865,9 +34869,9 @@
         <v>#REF!</v>
       </c>
       <c r="D12" s="281"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="277"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="282"/>
+      <c r="G12" s="259"/>
       <c r="S12" s="33"/>
       <c r="T12" s="32"/>
       <c r="U12" s="33"/>
@@ -34940,7 +34944,7 @@
         <f>D11*$B$2*30/1000</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="288" t="e">
+      <c r="D15" s="282" t="e">
         <f>SUM(C15,B15:B16)</f>
         <v>#REF!</v>
       </c>
@@ -34967,7 +34971,7 @@
         <v>#REF!</v>
       </c>
       <c r="C16" s="281"/>
-      <c r="D16" s="288"/>
+      <c r="D16" s="282"/>
       <c r="F16" s="210"/>
       <c r="S16" s="33"/>
       <c r="T16" s="32"/>
@@ -34985,6 +34989,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="Y4:Y7"/>
@@ -35001,20 +35019,6 @@
     <mergeCell ref="X4:X7"/>
     <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="1">
@@ -35249,15 +35253,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e073ce31-b17c-485d-bcd7-0e073df22ac3" xsi:nil="true"/>
@@ -35266,6 +35261,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35288,14 +35292,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A43C7C-2EE5-4157-AAF2-E98009CB5510}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A91EACF-CC2E-4249-AE71-CA97D2F57AA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -35305,4 +35301,12 @@
     <ds:schemaRef ds:uri="e37759b1-efb6-4a2d-a1a3-3d6ae612ae05"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A43C7C-2EE5-4157-AAF2-E98009CB5510}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>